--- a/output/tesla_model_s.xlsx
+++ b/output/tesla_model_s.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
@@ -494,280 +494,280 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>18:32:06</t>
+          <t>11:39:47</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25.900</t>
+          <t xml:space="preserve"> 29.900</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>09/2014</t>
+          <t>04/2015</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(94 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>152.000 km</t>
+          <t>79.000 km</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85KWh</t>
+          <t>P85D DUAL MOTOR PERFORMANCE PELLE FARI XENO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-85kwh-elettrica-nero-3c5057eb-59f2-40c4-a2cd-3cb5e5d52fa7</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85d-dual-motor-performance-pelle-fari-xeno-elettrica-rosso-135afb80-e02f-448a-9ecc-0c476374519a</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30.999</t>
+          <t xml:space="preserve"> 55.950</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>06/2015</t>
+          <t>05/2020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>253 CV</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>259.000 km</t>
+          <t>35.000 km</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Model S 85kWh Dual Motor Performance</t>
+          <t>Model S 100 KWH DUAL MOTOR LONG RANGE AUT. 4WD</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-85kwh-dual-motor-performance-elettrica-bianco-70636920-694e-4df4-bdc3-2d38280897c0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-kwh-dual-motor-long-range-aut-4wd-elettrica-grigio-d4eaee72-cc37-46e7-991a-8b64ed5f3ab6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41.300</t>
+          <t xml:space="preserve"> 37.400</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>11/2018</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>421 CV</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.972 km</t>
+          <t>125.598 km</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dual Motor AWD - IVA Esposta</t>
+          <t>100KWH ALL-WHEEL DRIVE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-dual-motor-awd-iva-esposta-elettrica-grigio-c4b5132f-a2c8-4889-8531-69113ea01c8e</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-all-wheel-drive-elettrica-nero-7f4f6bce-55fd-4444-9434-74d22536d30f</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33.900</t>
+          <t xml:space="preserve"> 35.400</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12/2016</t>
+          <t>10/2018</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>421 CV</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>156.000 km</t>
+          <t>147.757 km</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90kWh Integrale</t>
+          <t>100kWh Dual Motor AWD</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-90kwh-integrale-elettrica-nero-14c626e3-b3e3-4b85-9499-5e84b4fd93a9</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-dual-motor-awd-elettrica-grigio-5a02f770-6432-4d52-89eb-476d3dc4859c</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36.790</t>
+          <t xml:space="preserve"> 35.900</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>07/2018</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>98.000 km</t>
+          <t>91.000 km</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75kWh All-Wheel Drive</t>
+          <t>75 D</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-75kwh-all-wheel-drive-elettrica-grigio-1b00699d-632f-47a0-a365-e67f92ae75f9</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-75-d-elettrica-argento-ca5de649-1273-4f33-a985-d261cc0a1450</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44.500</t>
+          <t xml:space="preserve"> 30.999</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>06/2015</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>185.000 km</t>
+          <t>259.000 km</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Model S Performance Dual Motor awd</t>
+          <t>Model S 85kWh Dual Motor Performance</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-performance-dual-motor-awd-elettrica-nero-5fe494fe-90f2-4070-9e52-51c7a951fab5</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-85kwh-dual-motor-performance-elettrica-bianco-70636920-694e-4df4-bdc3-2d38280897c0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58.950</t>
+          <t xml:space="preserve"> 42.900</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>10/2018</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>253 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35.000 km</t>
+          <t>130.000 km</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Model S 100 KWH DUAL MOTOR LONG RANGE AUT. 4WD</t>
+          <t>100 DUAL MOTOR AWD - TETTO APRIB  CERCHI 21 - FULL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-kwh-dual-motor-long-range-aut-4wd-elettrica-grigio-d4eaee72-cc37-46e7-991a-8b64ed5f3ab6</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-dual-motor-awd-tetto-aprib-cerchi-21-full-elettrica-blu-azzurro-ca6b5f02-774b-4bc9-8cbd-45c799dedffe</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42.999</t>
+          <t xml:space="preserve"> 34.900</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>12/2017</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>107.415 km</t>
+          <t>130.000 km</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>100 kw All-Wheel Drive 19'' Led T. Pano Tele. Navi</t>
+          <t>Model S 75 D</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-kw-all-wheel-drive-19-led-t-pano-tele-navi-elettrica-blu-azzurro-1452e8c1-95e5-4d32-a1fa-6ec8e7d2c21d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-elettrica-3a6b53b3-ef9a-4f09-b225-4b47a25a7400</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44.900</t>
+          <t xml:space="preserve"> 38.000</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>04/2017</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -777,56 +777,56 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>100 DUAL MOTOR AWD - TETTO APRIB  CERCHI 21 - FULL</t>
+          <t>Model S 90 D</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-dual-motor-awd-tetto-aprib-cerchi-21-full-elettrica-blu-azzurro-ca6b5f02-774b-4bc9-8cbd-45c799dedffe</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90-d-elettrica-blu-azzurro-10556d47-9641-4270-b99a-3d0341437a53</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37.900</t>
+          <t xml:space="preserve"> 26.900</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>12/2016</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>101.800 km</t>
+          <t>156.000 km</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Model S 75 KWh all-wheel drive</t>
+          <t>70 D Supercharger gratis a Vita!</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-kwh-all-wheel-drive-elettrica-nero-b8d3f101-506d-4302-a448-6d5522a07cd1</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-70-d-supercharger-gratis-a-vita-elettrica-bianco-decfb201-7624-4a08-80a1-1cccd7a49ed9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.400</t>
+          <t xml:space="preserve"> 30.900</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>06/2017</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -836,184 +836,184 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95.657 km</t>
+          <t>178.000 km</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>100 kWh Long Range Dual Motor AWD</t>
+          <t>Model S 100 D</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-kwh-long-range-dual-motor-awd-elettrica-blu-azzurro-3902f752-b414-4123-9280-d69492f5c988</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-d-elettrica-grigio-e74b177d-749c-4dfb-a2a2-9f3d9212b111</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57.990</t>
+          <t xml:space="preserve"> 29.900</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>01/2018</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>420 CV</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>101.062 km</t>
+          <t>120.000 km</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>100 kWh Performance All-Wheel Drive</t>
+          <t>Prezzo più basso d'italia per immediato realizzo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-kwh-performance-all-wheel-drive-elettrica-blu-azzurro-ce068d3c-f9b1-49a0-ba8d-8e9f6def9312</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-prezzo-piu-basso-d-italia-per-immediato-realizzo-elettrica-nero-19c28218-0eb2-457e-9e09-523d6023e058</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33.900</t>
+          <t xml:space="preserve"> 27.900</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/2016</t>
+          <t>11/2017</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>538 CV</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>156.000 km</t>
+          <t>418.000 km</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90kWh Integrale</t>
+          <t>P 100 Dual Motor Long Range</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-90kwh-integrale-elettrica-nero-d97d775b-c0e3-4a92-af5f-f44ca87d4eda</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p-100-dual-motor-long-range-elettrica-blu-azzurro-af278e15-e0ec-450a-81ca-bba8721be6d6</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25.900</t>
+          <t xml:space="preserve"> 40.000</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>06/2019</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>421 CV</t>
+          <t>891 CV</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>348.999 km</t>
+          <t>93.000 km</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Model S 100kWh All-Wheel Drive batterie nuove</t>
+          <t>PERF. D. M. 100 Subentro leasing 1430 € mensili</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100kwh-all-wheel-drive-batterie-nuove-elettrica-nero-31673d86-a2db-442f-963d-5f761432b05d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-perf-d-m-100-subentro-leasing-1430--mensili-elettrica-bianco-9e52f734-be43-4b0b-ac6e-db3392c0b204</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 24.900</t>
+          <t xml:space="preserve"> 27.900</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>03/2014</t>
+          <t>12/2014</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>400 CV</t>
+          <t>(94 CV</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>214.000 km</t>
+          <t>139.500 km</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>85  cerchi di 21</t>
+          <t>Model S 85 Autopilot1 - SUPERCHARGER A VITA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-85-cerchi-di-21-elettrica-blu-azzurro-a392a2a5-4016-4e61-be34-5a766f696645</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-85-autopilot1-supercharger-a-vita-elettrica-argento-8e888f3b-c420-453f-a44d-2a125bfbb4f0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 28.500,-1</t>
+          <t xml:space="preserve"> 22.900</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>05/2016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>538 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>418.000 km</t>
+          <t>228.000 km</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>P 100 Dual Motor Long Range</t>
+          <t>Model S 85 D</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p-100-dual-motor-long-range-elettrica-blu-azzurro-af278e15-e0ec-450a-81ca-bba8721be6d6</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-85-d-elettrica-grigio-6ed87593-f880-4b25-8483-133e241a086b</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32.000</t>
+          <t xml:space="preserve"> 23.000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1023,54 +1023,54 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>420 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>120.000 km</t>
+          <t>350.000 km</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Prezzo più basso d'italia per immediato realizzo</t>
+          <t>Model S 75</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-prezzo-piu-basso-d-italia-per-immediato-realizzo-elettrica-nero-19c28218-0eb2-457e-9e09-523d6023e058</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-elettrica-nero-99efd011-4368-4dc7-a363-f5368a88ec5f</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25.000</t>
+          <t xml:space="preserve"> 32.000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>02/2015</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>182 CV</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>350.000 km</t>
+          <t>210.000 km</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Model S 75</t>
+          <t>85D RICARICHE GRATIS A VITA!!</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-elettrica-nero-99efd011-4368-4dc7-a363-f5368a88ec5f</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-85d-ricariche-gratis-a-vita-elettrica-grigio-aa0f69f4-b723-4085-8251-d8282f2932ed</t>
         </is>
       </c>
       <c r="N19" s="1" t="n"/>
@@ -1078,32 +1078,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38.000</t>
+          <t xml:space="preserve"> 38.200</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>05/2019</t>
+          <t>08/2015</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>292 CV</t>
+          <t>511 CV</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>80.000 km</t>
+          <t>176.000 km</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>100D - Batterie nuove</t>
+          <t>85D….BELLISSIMA…RICARICHE GRATUITE A VITA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100d-batterie-nuove-elettrica-nero-6858575d-d3e5-4243-a6cd-1df1d88c8aa0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-85d-bellissimaricariche-gratuite-a-vita-elettrica-bianco-b57154bb-c2bf-44d6-b52b-ffe91e86f24d</t>
         </is>
       </c>
     </row>
@@ -1115,59 +1115,59 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>03/2016</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>320 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>99.500 km</t>
+          <t>96.000 km</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Integrale - AutoPilot completo - MCU2</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-integrale-autopilot-completo-mcu2-elettrica-grigio-c4cbf8c2-0d67-428f-880c-1130c0f4d4db</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-90-elettrica-grigio-f73660da-53ab-4f2c-8c9d-ba5ddf8b5b24</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 34.900</t>
+          <t xml:space="preserve"> 29.900</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>02/2015</t>
+          <t>08/2016</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>182 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>210.000 km</t>
+          <t>147.250 km</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>85D RICARICHE GRATIS A VITA!!</t>
+          <t>Model S 90kWh Integrale</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-85d-ricariche-gratis-a-vita-elettrica-grigio-6c15c4d6-dd7f-43e7-9cd3-d61e4103a36a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90kwh-integrale-elettrica-argento-27a72433-d7d9-4dbd-b7fe-8271eee8f118</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>180.000 km</t>
+          <t>186.000 km</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1238,39 +1238,39 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 34.900</t>
+          <t xml:space="preserve"> 26.000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>07/2017</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>480 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>128.000 km</t>
+          <t>195.000 km</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Restyling</t>
+          <t>Model S 75 D</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-restyling-elettrica-nero-94d484df-abec-4038-b7d5-4e8ee139ab27</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-elettrica-nero-418d1714-85c3-401e-92cb-5004b4f9243b</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32.900,-1</t>
+          <t xml:space="preserve"> 31.900</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1285,381 +1285,377 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>96.000 km</t>
+          <t>37.000 km</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-90-elettrica-grigio-b9a01365-09a0-45a5-9ca8-ff54db258b6d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-70-elettrica-blu-azzurro-99e85bc5-a93f-45d1-a75f-e23c7d45b6cb</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40.000</t>
+          <t xml:space="preserve"> 33.800</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>12/2015</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>551 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>130.000 km</t>
+          <t>210.000 km</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Model S  - FSD - HW3 - MCU2 con garanzia ufficiale</t>
+          <t>90kWh Dual Motor BATTERIE NUOVE - RICARICHE GRATIS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-fsd-hw3-mcu2-con-garanzia-ufficiale-elettrica-grigio-655a505d-8be3-458b-82fa-1d60c36d92a7</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-90kwh-dual-motor-batterie-nuove-ricariche-gratis-elettrica-bianco-f640c9dd-b9ba-4069-b75e-4e6f821fc880</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31.900</t>
+          <t xml:space="preserve"> 35.000</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>04/2016</t>
+          <t>12/2013</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>333 CV</t>
+          <t>421 CV</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>128.500 km</t>
+          <t>22.000 km</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>70 D</t>
+          <t>P85+</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-70-d-elettrica-grigio-b9143526-e644-4b92-8cbc-da05301a1fc3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85-elettrica-rosso-fb8f33a9-d5af-4faf-92b9-3044c7bc69d5</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32.900,-1</t>
+          <t xml:space="preserve"> 29.900</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>03/2016</t>
+          <t>08/2018</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>450 CV</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>96.000 km</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+          <t>135.000 km</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-90-elettrica-grigio-f73660da-53ab-4f2c-8c9d-ba5ddf8b5b24</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-elettrica-nero-91bf1e08-8b51-4867-803d-f7fdd59381be</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30.000</t>
+          <t xml:space="preserve"> 58.000</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>06/2016</t>
+          <t>08/2019</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>700 CV</t>
+          <t>835 CV</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>198.000 km</t>
+          <t>42.000 km</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>P90D performance ludicrous</t>
+          <t>PERFORMANCE RAVEN LUDICRUS PLUS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p90d-performance-ludicrous-elettrica-rosso-edc6762d-2c72-45ef-82c7-931abdf893be</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-raven-ludicrus-plus-elettrica-nero-dd93e88c-879d-4420-b01a-7752f681a086</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.000</t>
+          <t xml:space="preserve"> 24.900</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>09/2014</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>(94 CV</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>116.000 km</t>
+          <t>152.000 km</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>100D - RICARICA GRATUITA SUPERCHARGE ILLIMITATE</t>
+          <t>85KWh</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100d-ricarica-gratuita-supercharge-illimitate-elettrica-nero-ac9db2cc-bf5e-4046-8933-938b6c1817a8</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-85kwh-elettrica-nero-fae838bf-3976-486d-bafe-30cf0dac2583</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31.900</t>
+          <t xml:space="preserve"> 30.000</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>09/2016</t>
+          <t>06/2016</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>700 CV</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>113.000 km</t>
+          <t>198.000 km</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Model S 75kWh Integrale</t>
+          <t>P90D performance ludicrous</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75kwh-integrale-elettrica-blu-azzurro-af712696-af03-47bd-b4ee-1402c3cbf17e</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p90d-performance-ludicrous-elettrica-rosso-edc6762d-2c72-45ef-82c7-931abdf893be</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 31.900</t>
+          <t xml:space="preserve"> 25.500</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>03/2016</t>
+          <t>01/2014</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>421 CV</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>35.565 km</t>
+          <t>237.000 km</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>Performance 85+</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-70-elettrica-blu-azzurro-99e85bc5-a93f-45d1-a75f-e23c7d45b6cb</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-85-elettrica-grigio-6d354665-8e9c-4079-86a9-cf3de13e0412</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45.000</t>
+          <t xml:space="preserve"> 31.790</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>07/2016</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>884 CV</t>
+          <t>333 CV</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>188.000 km</t>
+          <t>128.500 km</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>70 D</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-elettrica-nero-7656e4f9-b96c-474b-a5b7-c91505b1d904</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-70-d-elettrica-grigio-b9143526-e644-4b92-8cbc-da05301a1fc3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.000</t>
+          <t xml:space="preserve"> 29.900</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12/2013</t>
+          <t>07/2015</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>421 CV</t>
+          <t>700 CV</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>22.000 km</t>
+          <t>137.235 km</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>P85+</t>
+          <t>Model S P85 D</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85-elettrica-rosso-fb8f33a9-d5af-4faf-92b9-3044c7bc69d5</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-p85-d-elettrica-grigio-bb653b54-04ea-4227-ad9e-03cd4f470996</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36.000</t>
+          <t xml:space="preserve"> 35.000</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>09/2017</t>
+          <t>07/2016</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>137.000 km</t>
+          <t>111.000 km</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>75D</t>
+          <t>P75 ricarica gratis in garanzia</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-75d-elettrica-nero-bb832ab3-3ff6-4504-99eb-054fc779f90a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p75-ricarica-gratis-in-garanzia-elettrica-nero-c7544631-3c92-4a0c-9d4c-ab6eb7306261</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29.880</t>
+          <t xml:space="preserve"> 35.000</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>03/2016</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>182 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>241.276 km</t>
+          <t>175.000 km</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Model S 85kWh Dual Motor Supercharger Gratuito</t>
+          <t>75 D - AUTOPILOT 2 - SOSPENSIONI PNEU - TETTO</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-85kwh-dual-motor-supercharger-gratuito-elettrica-verde-216c6e21-b0a7-44be-a24d-89a5968c5c04</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-75-d-autopilot-2-sospensioni-pneu-tetto-elettrica-grigio-1fde6be3-b21f-4529-be5b-cc4ebd444df5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.900</t>
+          <t xml:space="preserve"> 34.000</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>04/2016</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1669,157 +1665,157 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>73.000 km</t>
+          <t>130.000 km</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>100 D Long Range Garanzia Tesla 2027</t>
+          <t>70 D SUPERCHARGER GRATIS // CARICHE GRATUITE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-long-range-garanzia-tesla-2027-elettrica-nero-322b82bb-416d-4c5e-a7f9-9b1275638f51</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-70-d-supercharger-gratis-cariche-gratuite-elettrica-grigio-992ed3ea-5bb1-49c3-9968-a5cc0fbefec2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.000</t>
+          <t xml:space="preserve"> 28.880</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>03/2016</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>182 CV</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>194.000 km</t>
+          <t>241.276 km</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Model S 90 D Cerchi 21" FREE SUPERCHARGER!!!</t>
+          <t>Model S 85kWh Dual Motor Supercharger Gratuito</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90-d-cerchi-21-free-supercharger-elettrica-blu-azzurro-52145a5a-90a1-4a82-a290-f41a2260b349</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-85kwh-dual-motor-supercharger-gratuito-elettrica-verde-216c6e21-b0a7-44be-a24d-89a5968c5c04</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32.900</t>
+          <t xml:space="preserve"> 49.900</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>08/2016</t>
+          <t>01/2020</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>146.000 km</t>
+          <t>89.800 km</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Model S 90 D</t>
+          <t>Long Range Dual Motor Plus 100 kw</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90-d-elettrica-grigio-fa1bdc2b-598a-42f6-aade-56123295e94e</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-dual-motor-plus-100-kw-elettrica-grigio-addbe745-f0f8-4af0-a0ff-4c53a997924d</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.999</t>
+          <t xml:space="preserve"> 25.000</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>03/2014</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>689 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>138.831 km</t>
+          <t>143.000 km</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Model S P100 D Performance Loudicrous 100 KW</t>
+          <t>85</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-p100-d-performance-loudicrous-100-kw-elettrica-grigio-5d67d4e3-7a09-4946-b954-282952e17d22</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-85-elettrica-verde-71fa34f7-8d7d-4577-b547-29187c836aaa</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 33.500</t>
+          <t xml:space="preserve"> 30.500</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>08/2016</t>
+          <t>08/2015</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>147.250 km</t>
+          <t>230.000 km</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Model S 90kWh Integrale</t>
+          <t>Model S P85 D</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90kwh-integrale-elettrica-argento-27a72433-d7d9-4dbd-b7fe-8271eee8f118</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-p85-d-elettrica-bianco-6a049fce-b776-481d-a921-eb8313009a38</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 44.000</t>
+          <t xml:space="preserve"> 37.900</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06/2016</t>
+          <t>04/2015</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1829,413 +1825,413 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>164.000 km</t>
+          <t>125.000 km</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>90 D SUPERCHARGER GRATUITI A VITA</t>
+          <t>P85D SUC FREE RICARIC GRATIS a Vita</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-90-d-supercharger-gratuiti-a-vita-elettrica-argento-14341edf-cb65-47a9-9033-ba6e6be02909</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85d-suc-free-ricaric-gratis-a-vita-elettrica-grigio-85de0400-189d-41fe-9695-b340189044ad</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38.000</t>
+          <t xml:space="preserve"> 35.000</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>03/2017</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>500 CV</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>47.977 km</t>
+          <t>140.000 km</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Model S P90 D</t>
+          <t>Model S - FSD - HW3 - MCU2 con garanzia ufficiale</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-p90-d-elettrica-grigio-4d76c2b2-5b34-49cd-8b55-348b96dfc150</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-fsd-hw3-mcu2-con-garanzia-ufficiale-elettrica-grigio-fec5ee66-ec3e-411a-83c0-0b1d8710b203</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.000</t>
+          <t xml:space="preserve"> 56.900</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>12/2020</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>850 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>162.000 km</t>
+          <t>67.265 km</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Model S Performance Dual Motor Ludicrous  IVA ESP.</t>
+          <t>Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-performance-dual-motor-ludicrous-iva-esp-elettrica-bianco-7b4d1582-b38e-4f8b-a67b-934bebb0c8ca</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-blu-azzurro-baabade8-893f-4a36-83ae-641d03619554</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.000</t>
+          <t xml:space="preserve"> 42.000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>04/2017</t>
+          <t>08/2019</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>689 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>204.189 km</t>
+          <t>130.000 km</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Model S P100 D SUPERCHARGER GRATUITI A VITA</t>
+          <t>Model S 75 D</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-p100-d-supercharger-gratuiti-a-vita-elettrica-25dd0af5-8575-4fc6-802e-94185f08122e</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-elettrica-grigio-9159c285-c8ee-4717-b9e8-f9a32ddb8fee</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51.700</t>
+          <t xml:space="preserve"> 48.500</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>06/2018</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>89.000 km</t>
+          <t>36.000 km</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>P100D LUDICROUS</t>
+          <t>100D 422 CV AWD Long Range Dual Motor IVA ESPOSTA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100d-ludicrous-elettrica-nero-6c337ff6-6fcc-454b-bf21-1a85fc361521</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100d-422-cv-awd-long-range-dual-motor-iva-esposta-elettrica-grigio-753f1026-9caa-4c5a-a205-c9a33e523840</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 34.500</t>
+          <t xml:space="preserve"> 44.900</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>12/2014</t>
+          <t>12/2018</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>142.000 km</t>
+          <t>60.000 km</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>P85 supercharger free</t>
+          <t>Model S 100 D Dual Motor Long Range</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85-supercharger-free-elettrica-argento-bbd7be81-1442-4f80-903a-6979fb7086d4</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-d-dual-motor-long-range-elettrica-nero-3a19b0fc-4cb6-4e99-a554-ab0bd7aba409</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26.900</t>
+          <t xml:space="preserve"> 89.990</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>01/2014</t>
+          <t>01/2023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>421 CV</t>
+          <t>670 CV</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>237.000 km</t>
+          <t>11.900 km</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Performance 85+</t>
+          <t>Long Range Nuovo Modello</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-85-elettrica-grigio-6d354665-8e9c-4079-86a9-cf3de13e0412</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-nuovo-modello-elettrica-bianco-d3564c17-c776-414f-9bd5-7873716dba3d</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 34.000</t>
+          <t xml:space="preserve"> 42.000</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>07/2015</t>
+          <t>07/2016</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>700 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>137.235 km</t>
+          <t>166.000 km</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Model S P85 D</t>
+          <t>90 D SUPERCHARGER GRATIS A VITA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-p85-d-elettrica-grigio-bb653b54-04ea-4227-ad9e-03cd4f470996</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-90-d-supercharger-gratis-a-vita-elettrica-argento-7e493c31-d9b2-4af6-a342-ac9f8b74d3d2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47.900</t>
+          <t xml:space="preserve"> 44.500</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>02/2020</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>61.370 km</t>
+          <t>185.000 km</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>P100 D</t>
+          <t>Model S Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100-d-elettrica-blu-azzurro-f09f10bc-8241-4ce3-96fe-50e40fef713a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-performance-dual-motor-awd-elettrica-nero-5fe494fe-90f2-4070-9e52-51c7a951fab5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30.900,-1</t>
+          <t xml:space="preserve"> 30.500</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>04/2015</t>
+          <t>07/2016</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>334 CV</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>79.000 km</t>
+          <t>139.740 km</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>P85D DUAL MOTOR PERFORMANCE PELLE FARI XENO</t>
+          <t>70D Free SuC Allrad</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85d-dual-motor-performance-pelle-fari-xeno-elettrica-rosso-135afb80-e02f-448a-9ecc-0c476374519a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-70d-free-suc-allrad-elettrica-blu-azzurro-914d2431-837c-4f09-ab0c-41f580e78099</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 89.990</t>
+          <t xml:space="preserve"> 55.000</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>05/2020</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>670 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11.000 km</t>
+          <t>90.000 km</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Long Range Nuovo Modello</t>
+          <t>Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-nuovo-modello-elettrica-bianco-d3564c17-c776-414f-9bd5-7873716dba3d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-bianco-a4595b93-c6a2-47f9-a768-946b515cf574</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35.000</t>
+          <t xml:space="preserve"> 30.500</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>07/2016</t>
+          <t>03/2016</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>111.000 km</t>
+          <t>192.000 km</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>P75 ricarica gratis in garanzia</t>
+          <t>Model S 90 D</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p75-ricarica-gratis-in-garanzia-elettrica-nero-c7544631-3c92-4a0c-9d4c-ab6eb7306261</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90-d-elettrica-29235874-bd58-4e51-a451-20070115d81a</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.500</t>
+          <t xml:space="preserve"> 39.500</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>10/2016</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>253 CV</t>
+          <t>250 CV</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>61.976 km</t>
+          <t>96.500 km</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>100kWh Long Range Dual Motor AWD</t>
+          <t>P90D</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-long-range-dual-motor-awd-elettrica-grigio-f107a7a3-d95d-45ca-b5b4-ed407c8e93f8</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p90d-elettrica-blu-azzurro-797abe47-c150-453a-8006-718a04e705d6</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29.000</t>
+          <t xml:space="preserve"> 39.950</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>03/2018</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2245,93 +2241,93 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>385.000 km</t>
+          <t>78.300 km</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Model S 90 D</t>
+          <t>75 D SOTTOCOSTO!!!!</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90-d-elettrica-blu-azzurro-f8240a02-6c1e-4af2-9247-a3e47104f087</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-75-d-sottocosto-elettrica-blu-azzurro-c62c3d9d-66b8-42cf-bf11-ab90f2051622</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.900</t>
+          <t xml:space="preserve"> 38.000</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>04/2018</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>130.000 km</t>
+          <t>47.977 km</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Model S 75 full optional ricariche gratis</t>
+          <t>Model S P90 D</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-full-optional-ricariche-gratis-elettrica-3ea125d7-780e-47da-bb92-8ee76d7e25e7</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-p90-d-elettrica-grigio-4d76c2b2-5b34-49cd-8b55-348b96dfc150</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30.000</t>
+          <t xml:space="preserve"> 47.900</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>09/2017</t>
+          <t>03/2017</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>136.000 km</t>
+          <t>61.370 km</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>P90 D</t>
+          <t>P100 D</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p90-d-elettrica-nero-62bc71cf-e4e0-48e4-a1da-aab4bb921d5f</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100-d-elettrica-blu-azzurro-f09f10bc-8241-4ce3-96fe-50e40fef713a</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.900</t>
+          <t xml:space="preserve"> 42.500</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>04/2015</t>
+          <t>01/2015</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2341,189 +2337,189 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>123.000 km</t>
+          <t>180.000 km</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>P85D SUC FREE RICARIC GRATIS a Vita</t>
+          <t>P85 D</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85d-suc-free-ricaric-gratis-a-vita-elettrica-grigio-85de0400-189d-41fe-9695-b340189044ad</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85-d-elettrica-bianco-c48fbddd-9321-4b7b-aada-ab27eb2356df</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59.000</t>
+          <t xml:space="preserve"> 39.900</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>07/2019</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>253 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>56.000 km</t>
+          <t>130.000 km</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Model S LONG RANGE Plus Raven Dual Motor awd</t>
+          <t>Model S 75 full optional ricariche gratis</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-long-range-plus-raven-dual-motor-awd-elettrica-grigio-05e12631-856c-4d9e-891a-4d058e3a1a65</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-full-optional-ricariche-gratis-elettrica-3ea125d7-780e-47da-bb92-8ee76d7e25e7</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57.890</t>
+          <t xml:space="preserve"> 43.000</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>06/2019</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>59.125 km</t>
+          <t>180.000 km</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>100kWh Performance Dual Motor AWD</t>
+          <t>100 long range supercharge gratis garanzia 2027</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-performance-dual-motor-awd-elettrica-grigio-57c49464-ede3-4b58-ad37-4db6e1229774</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-long-range-supercharge-gratis-garanzia-2027-elettrica-grigio-2267e84c-881f-4c47-a5a8-5223124d608c</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37.000</t>
+          <t xml:space="preserve"> 30.000</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>09/2017</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>175.000 km</t>
+          <t>136.000 km</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>75 D - AUTOPILOT 2 - SOSPENSIONI PNEU - TETTO</t>
+          <t>P90 D</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-75-d-autopilot-2-sospensioni-pneu-tetto-elettrica-grigio-1fde6be3-b21f-4529-be5b-cc4ebd444df5</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p90-d-elettrica-nero-62bc71cf-e4e0-48e4-a1da-aab4bb921d5f</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32.500</t>
+          <t xml:space="preserve"> 32.000</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>08/2014</t>
+          <t>06/2016</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>400 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>268.000 km</t>
+          <t>123.000 km</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Model S 85 D</t>
+          <t>Model S 70D</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-85-d-elettrica-rosso-b4ce62a0-5479-4093-907f-8dc55e9c21fa</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-70d-elettrica-beige-07a6d6c0-015a-4d0b-adaa-59ec87368a70</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.900</t>
+          <t xml:space="preserve"> 55.000</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>03/2020</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>39.000 km</t>
+          <t>50.000 km</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Model S 100 D</t>
+          <t>Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-d-elettrica-grigio-b521cd1a-2363-470c-8e44-67030b3bec46</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-nero-656b52f0-7088-4586-a8fe-3487996a19cc</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35.000</t>
+          <t xml:space="preserve"> 32.900</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>03/2016</t>
+          <t>08/2016</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2533,7 +2529,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>192.000 km</t>
+          <t>146.000 km</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2543,435 +2539,435 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90-d-elettrica-29235874-bd58-4e51-a451-20070115d81a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90-d-elettrica-grigio-fa1bdc2b-598a-42f6-aade-56123295e94e</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37.990</t>
+          <t xml:space="preserve"> 34.000</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>08/2018</t>
+          <t>11/2018</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>333 CV</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>155.000 km</t>
+          <t>110.000 km</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Model S 75 D PERMUTE UNICOPROPRIETARIO</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-permute-unicoproprietario-elettrica-bianco-ade1e659-f9ab-4e18-b500-0c2a664bab4c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-75d-elettrica-nero-b652399c-177a-4e90-a714-f29dbc58260d</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41.490</t>
+          <t xml:space="preserve"> 52.000</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>08/2019</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>850 CV</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>125.598 km</t>
+          <t>162.000 km</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>100KWH ALL-WHEEL DRIVE</t>
+          <t>Model S Performance Dual Motor Ludicrous  IVA ESP.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-all-wheel-drive-elettrica-nero-45a730b0-c0e1-429b-beee-3d84b30bf32f</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-performance-dual-motor-ludicrous-iva-esp-elettrica-bianco-7b4d1582-b38e-4f8b-a67b-934bebb0c8ca</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.950</t>
+          <t xml:space="preserve"> 55.000</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>04/2017</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>689 CV</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>78.300 km</t>
+          <t>204.189 km</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>75 D SOTTOCOSTO!!!!</t>
+          <t>Model S P100 D SUPERCHARGER GRATUITI A VITA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-75-d-sottocosto-elettrica-blu-azzurro-c62c3d9d-66b8-42cf-bf11-ab90f2051622</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-p100-d-supercharger-gratuiti-a-vita-elettrica-25dd0af5-8575-4fc6-802e-94185f08122e</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.000</t>
+          <t xml:space="preserve"> 57.890</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>11/2016</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>218.000 km</t>
+          <t>59.125 km</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Model S 90 D supercharger illimitati</t>
+          <t>100kWh Performance Dual Motor AWD</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90-d-supercharger-illimitati-elettrica-grigio-f6f1b596-d93b-4f94-8726-2f7eda15cc80</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-performance-dual-motor-awd-elettrica-grigio-57c49464-ede3-4b58-ad37-4db6e1229774</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 56.000</t>
+          <t xml:space="preserve"> 40.900</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10/2017</t>
+          <t>08/2018</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>45.000 km</t>
+          <t>107.415 km</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>100kWh Performance P 100 D</t>
+          <t>100 kwhAll-Wheel Drive 19'' Led T. Pano Tele. Navi</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-performance-p-100-d-elettrica-bianco-58633622-c4cd-42e6-9902-4b87ac9eefb4</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-kwhall-wheel-drive-19-led-t-pano-tele-navi-elettrica-blu-azzurro-fb9c2bde-acff-4859-8651-c2e34672f74c</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 60.000</t>
+          <t xml:space="preserve"> 40.000</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>09/2020</t>
+          <t>02/2017</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>55.000 km</t>
+          <t>175.000 km</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Performance Ludicrous awd</t>
+          <t>Model S 75D - SC01 - SUPERCHARGER A VITA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-ludicrous-awd-elettrica-blu-azzurro-35b5a9b7-610b-4e19-aef3-a821919d12f8</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75d-sc01-supercharger-a-vita-elettrica-grigio-e4fb1f1a-8c21-46fb-8448-1d9e55b0166d</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.990</t>
+          <t xml:space="preserve"> 47.900</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>08/2020</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t xml:space="preserve"> (1 CV</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>221.000 km</t>
+          <t>80.000 km</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>UNICO PROPRIETARIO</t>
+          <t>Performance Ludicrous awd IMPECCABILE !</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-unico-proprietario-elettrica-nero-d6aceb46-0d4a-4ef7-ab85-bb4121dcdb0c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-ludicrous-awd-impeccabile-elettrica-nero-376c048b-6cf3-4013-93f5-ed6d6c36ca64</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59.890</t>
+          <t xml:space="preserve"> 56.500</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>03/2020</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>540 CV</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>57.000 km</t>
+          <t>53.781 km</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>100kWh Long Range Dual Motor AWD</t>
+          <t>Model S 100kWh Long Range Dual Motor AWD</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-long-range-dual-motor-awd-elettrica-bianco-ec256e60-5723-436b-8bd0-0042edccd436</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100kwh-long-range-dual-motor-awd-elettrica-grigio-4cc2921c-c709-434f-b7eb-d543ad04a86c</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36.000</t>
+          <t xml:space="preserve"> 85.000</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>03/2023</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>333 CV</t>
+          <t>296 CV</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>110.000 km</t>
+          <t>30.000 km</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Model S 75D</t>
+          <t>Model S Dual Motor Long Range awd</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75d-elettrica-nero-cc45b00f-71b5-438e-aedb-2be7af6dcd7e</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-dual-motor-long-range-awd-elettrica-bianco-d350aa10-88d8-4434-9d97-6f8f41dbbcb0</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.500</t>
+          <t xml:space="preserve"> 32.300</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10/2016</t>
+          <t>06/2016</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>250 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>96.500 km</t>
+          <t>165.000 km</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>P90D</t>
+          <t>Model S 90 D</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p90d-elettrica-blu-azzurro-797abe47-c150-453a-8006-718a04e705d6</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90-d-elettrica-grigio-1e4fca84-b955-4197-b76f-ea41270ca91e</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 25.900</t>
+          <t xml:space="preserve"> 41.000</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>09/2014</t>
+          <t>03/2017</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>(94 CV</t>
+          <t>387 CV</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>152.000 km</t>
+          <t>130.300 km</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>85KWh</t>
+          <t>***Model S  75 Supercharger FREE**:///</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-85kwh-elettrica-nero-22e2ae0a-1400-475f-a136-ed92abf67657</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-supercharger-free-elettrica-blu-azzurro-2b13634a-6316-4004-842e-214ee4d484cc</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41.000</t>
+          <t xml:space="preserve"> 50.000</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>12/2017</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>387 CV</t>
+          <t>421 CV</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>130.300 km</t>
+          <t>105.000 km</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>***Model S  75 Supercharger FREE**:///</t>
+          <t>100 D subentro leasing</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-supercharger-free-elettrica-blu-azzurro-2b13634a-6316-4004-842e-214ee4d484cc</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-subentro-leasing-elettrica-nero-2d03bb08-c345-4a1c-8015-1de54934baa7</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 56.500</t>
+          <t xml:space="preserve"> 146.900</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>02/2023</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>540 CV</t>
+          <t>020 CV</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>53.781 km</t>
+          <t>10 km</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Model S 100kWh Long Range Dual Motor AWD</t>
+          <t>PLAID AWD VOLANTE TONDO KAMERA 360 PDC NAVI APP</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100kwh-long-range-dual-motor-awd-elettrica-grigio-4cc2921c-c709-434f-b7eb-d543ad04a86c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-plaid-awd-volante-tondo-kamera-360-pdc-navi-app-elettrica-nero-2df87110-5042-4e23-9b5e-a4322496a5c4</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51.500</t>
+          <t xml:space="preserve"> 55.900</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>03/2019</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2981,125 +2977,125 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>115.000 km</t>
+          <t>49.182 km</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Model S P100 D GARANZIA fino 06.2027</t>
+          <t>p100 d</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-p100-d-garanzia-fino-06-2027-elettrica-bianco-64c407df-36ce-4dc9-85d8-9678af34c99a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100-d-elettrica-blu-azzurro-b9ca9cf3-dd25-4a4c-a826-e2fef32a399e</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40.000</t>
+          <t xml:space="preserve"> 42.000</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>02/2017</t>
+          <t>09/2016</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>328 CV</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>175.000 km</t>
+          <t>60.000 km</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Model S 75D - SC01 - SUPERCHARGER A VITA</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75d-sc01-supercharger-a-vita-elettrica-grigio-e4fb1f1a-8c21-46fb-8448-1d9e55b0166d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-75d-elettrica-nero-91912e0c-dc81-4034-ba6c-5195c6f21b5c</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50.000</t>
+          <t xml:space="preserve"> 29.000</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10/2020</t>
+          <t>10/2017</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>540 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>115.000 km</t>
+          <t>385.000 km</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Long Range Plus awd</t>
+          <t>Model S 90 D</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-nero-7d9e113e-25ff-4b43-8475-b65dc467e638</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90-d-elettrica-blu-azzurro-f8240a02-6c1e-4af2-9247-a3e47104f087</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.000</t>
+          <t xml:space="preserve"> 48.900</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>05/2019</t>
+          <t>05/2020</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>421 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>121.000 km</t>
+          <t>101.365 km</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Model S 100 D long Range Dual Motor</t>
+          <t>PERFORMANCE DUAL MOTOR AWD</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-d-long-range-dual-motor-elettrica-grigio-1a61b27d-8280-4e9a-b602-16ddc22dff1a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-grigio-2dde6583-d50b-47a4-be7f-48f207cdc4b9</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.900</t>
+          <t xml:space="preserve"> 39.990</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>12/2019</t>
+          <t>03/2020</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3109,605 +3105,605 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>86.000 km</t>
+          <t>221.000 km</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Long Range Plus Dual Motor AWD 100 kwh</t>
+          <t>UNICO PROPRIETARIO</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-dual-motor-awd-100-kwh-elettrica-grigio-f7bad732-8bcc-4b71-8db2-3edaf4b88157</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-unico-proprietario-elettrica-nero-d6aceb46-0d4a-4ef7-ab85-bb4121dcdb0c</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 34.900</t>
+          <t xml:space="preserve"> 56.900</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>12/2020</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>153.000 km</t>
+          <t>67.265 km</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Supercharger gratis a vita!</t>
+          <t>Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-supercharger-gratis-a-vita-elettrica-rosso-f30fefdc-d7af-491e-8434-01cc023f136c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-blu-azzurro-266e65c1-9578-4c8c-89b6-6ec29073138e</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 53.000</t>
+          <t xml:space="preserve"> 29.500</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>04/2018</t>
+          <t>08/2016</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>90.000 km</t>
+          <t>360.000 km</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>P100 D</t>
+          <t>Model S 90 D</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100-d-elettrica-nero-264c1165-659e-44f2-b182-294948e117bd</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90-d-elettrica-grigio-b1dfdd4c-be17-4a49-b0ea-32c13679ad8b</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32.500</t>
+          <t xml:space="preserve"> 36.400</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>04/2015</t>
+          <t>04/2018</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>727 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>245.000 km</t>
+          <t>98.000 km</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>P85 D</t>
+          <t>75kWh All-Wheel Drive</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85-d-elettrica-blu-azzurro-88e610b1-0890-4a5c-b058-ddb2970e332f</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-75kwh-all-wheel-drive-elettrica-grigio-1b00699d-632f-47a0-a365-e67f92ae75f9</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37.500</t>
+          <t xml:space="preserve"> 54.500</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>03/2018</t>
+          <t>01/2020</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>77.000 km</t>
+          <t>99.000 km</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Model S 75kWh All-Wheel Drive</t>
+          <t>Performance Ludicrous awd</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75kwh-all-wheel-drive-elettrica-rosso-2a2aa1c0-9ee3-4bbe-893c-a5fa5714662b</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-ludicrous-awd-elettrica-bianco-c5bdd733-b62e-4b63-b733-010cb2bebd4c</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.000</t>
+          <t xml:space="preserve"> 23.900</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>01/2020</t>
+          <t>11/2013</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>(94 CV</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>96.000 km</t>
+          <t>188.000 km</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Performance Ludicrous awd</t>
+          <t>85KWh</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-ludicrous-awd-elettrica-bianco-c5bdd733-b62e-4b63-b733-010cb2bebd4c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-85kwh-elettrica-blu-azzurro-0c75477f-9fcd-4a41-9c2b-e8573dff3f44</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.400</t>
+          <t xml:space="preserve"> 59.900</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>02/2020</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>245 CV</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>92.662 km</t>
+          <t>95.800 km</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>100 kWh Performance Dual Motor AWD UNICO PR.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-nero-9a64ead2-d0cb-4aa9-9821-3c9a8b416f6a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-kwh-performance-dual-motor-awd-unico-pr-elettrica-bianco-ab62209b-5577-4e9c-9b31-26c7ea3a2b6a</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41.900</t>
+          <t xml:space="preserve"> 48.000</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>12/2017</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>65.011 km</t>
+          <t>93.000 km</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>75 * IVA ESPOSTA</t>
+          <t>P100D</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-75-iva-esposta-elettrica-blu-azzurro-2ffd84d9-20f7-44a7-87e3-b87e1673c927</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100d-elettrica-nero-9c06408b-f43e-4a9e-8f19-4233ef2c1bea</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.900</t>
+          <t xml:space="preserve"> 32.500</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>07/2019</t>
+          <t>08/2014</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>613 CV</t>
+          <t>400 CV</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>90.000 km</t>
+          <t>268.000 km</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>P100D (Performance Dual Motor awd)</t>
+          <t>Model S 85 D</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100d-performance-dual-motor-awd-elettrica-nero-44040890-fcba-47c8-a23d-1f42211d90a6</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-85-d-elettrica-rosso-b4ce62a0-5479-4093-907f-8dc55e9c21fa</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29.500</t>
+          <t xml:space="preserve"> 51.500</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>01/2014</t>
+          <t>06/2019</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>421 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>210.000 km</t>
+          <t>115.000 km</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>P 85</t>
+          <t>Model S P100 D GARANZIA fino 06.2027</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p-85-elettrica-argento-ebb424d0-657f-4177-8cd1-c6c7be2409b0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-p100-d-garanzia-fino-06-2027-elettrica-bianco-64c407df-36ce-4dc9-85d8-9678af34c99a</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30.000</t>
+          <t xml:space="preserve"> 110.000</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>12/2014</t>
+          <t>02/2023</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>485 CV</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>190.000 km</t>
+          <t>3.000 km</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>85 D</t>
+          <t>Model S Performance Dual Motor Plaid awd</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-85-d-elettrica-blu-azzurro-968f967f-2b5d-461f-b727-0910e2d055d0</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-performance-dual-motor-plaid-awd-elettrica-bianco-0320f034-aad7-47c8-b097-35414354d497</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57.500</t>
+          <t xml:space="preserve"> 49.900</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>03/2019</t>
+          <t>12/2018</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>054 CV</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>49.182 km</t>
+          <t>160.000 km</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>p100 d</t>
+          <t>P100 Performance Ludicrous +</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100-d-elettrica-blu-azzurro-b9ca9cf3-dd25-4a4c-a826-e2fef32a399e</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100-performance-ludicrous-elettrica-grigio-92ae53c8-bbc3-499d-921d-2e14406099dd</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.900</t>
+          <t xml:space="preserve"> 54.500</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>89.316 km</t>
+          <t>40.719 km</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>100 d</t>
+          <t>LONG RANGE PLUS AWD</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-nero-3c507324-1a78-4a19-a61b-55e6a483e868</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-57e8b9e1-afa4-429d-b496-22a1568f5d1e</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 116.000</t>
+          <t xml:space="preserve"> 46.000</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>01/2023</t>
+          <t>05/2019</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>020 CV</t>
+          <t>421 CV</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>16.000 km</t>
+          <t>121.000 km</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Model S Plaid awd</t>
+          <t>Model S 100 D long Range Dual Motor</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-plaid-awd-elettrica-blu-azzurro-64d4200f-5e1a-467f-b166-913483e9e9ed</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-d-long-range-dual-motor-elettrica-grigio-1a61b27d-8280-4e9a-b602-16ddc22dff1a</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 146.900</t>
+          <t xml:space="preserve"> 42.000</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>11/2016</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>020 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>10 km</t>
+          <t>227.000 km</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PLAID AWD VOLANTE TONDO KAMERA 360 PDC NAVI APP</t>
+          <t>Model S 90 D supercharger illimitati</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-plaid-awd-volante-tondo-kamera-360-pdc-navi-app-elettrica-nero-2df87110-5042-4e23-9b5e-a4322496a5c4</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90-d-supercharger-illimitati-elettrica-grigio-f6f1b596-d93b-4f94-8726-2f7eda15cc80</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 60.400</t>
+          <t xml:space="preserve"> 47.500</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>02/2020</t>
+          <t>05/2017</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>245 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>95.800 km</t>
+          <t>118.000 km</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>100 kWh Performance Dual Motor AWD UNICO PR.</t>
+          <t>100kWh All-Wheel Drive 100D 2 MOTORS</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-kwh-performance-dual-motor-awd-unico-pr-elettrica-bianco-1dbd7ff4-413d-4153-826f-6e0406db00f4</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-all-wheel-drive-100d-2-motors-elettrica-nero-671a04b3-261a-4c04-b88f-391773e3b0ff</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 110.000</t>
+          <t xml:space="preserve"> 51.400</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>02/2023</t>
+          <t>03/2020</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>485 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3.000 km</t>
+          <t>74.138 km</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Model S Performance Dual Motor Plaid awd</t>
+          <t>LONG RANGE PLUS AWD</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-performance-dual-motor-plaid-awd-elettrica-bianco-0320f034-aad7-47c8-b097-35414354d497</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-f99529fd-b2d7-4829-88ad-b15bbb9de044</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41.500</t>
+          <t xml:space="preserve"> 38.900</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>12/2018</t>
+          <t>09/2018</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>321 CV</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>64.098 km</t>
+          <t>74.995 km</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Model S 75</t>
+          <t>75kWh All-Wheel Drive</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-elettrica-blu-azzurro-468d7d85-1d30-4ee8-8739-9b4ed5bf6dca</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-75kwh-all-wheel-drive-elettrica-bianco-8d621cb5-dd29-43bf-9570-4e8e7ea35c50</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.900</t>
+          <t xml:space="preserve"> 32.500</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>04/2015</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>727 CV</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>74.138 km</t>
+          <t>245.000 km</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>LONG RANGE PLUS AWD</t>
+          <t>P85 D</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-983f2085-0660-4f22-bc36-3ef954909476</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85-d-elettrica-blu-azzurro-88e610b1-0890-4a5c-b058-ddb2970e332f</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.000</t>
+          <t xml:space="preserve"> 37.500</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>05/2017</t>
+          <t>06/2018</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3717,157 +3713,157 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>118.000 km</t>
+          <t>101.800 km</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>100kWh All-Wheel Drive 100D 2 MOTORS</t>
+          <t>Model S 75 KWh all-wheel drive</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-all-wheel-drive-100d-2-motors-elettrica-nero-00dfc34a-b3ec-4ee6-9962-4e7c08e714ae</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-kwh-all-wheel-drive-elettrica-nero-b8d3f101-506d-4302-a448-6d5522a07cd1</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 32.900</t>
+          <t xml:space="preserve"> 37.500</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>07/2016</t>
+          <t>12/2017</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>334 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>139.740 km</t>
+          <t>200.000 km</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>70D Allradantrieb</t>
+          <t>Model S 100 D</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-70d-allradantrieb-elettrica-blu-azzurro-914d2431-837c-4f09-ab0c-41f580e78099</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-d-elettrica-bianco-470290c9-a4d3-4f19-b08a-ff67e60bb15c</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 65.900</t>
+          <t xml:space="preserve"> 47.600</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>09/2018</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>52.000 km</t>
+          <t>92.662 km</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>P100 D-MODEL S 100 D -LONG RANGE-DUAL MOTOR-4X4</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100-d-model-s-100-d-long-range-dual-motor-4x4-elettrica-bianco-6fd50235-3a23-4f48-800b-19ad93ef7f12</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-nero-9a64ead2-d0cb-4aa9-9821-3c9a8b416f6a</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.900</t>
+          <t xml:space="preserve"> 47.600</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>09/2018</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>245 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>16.412 km</t>
+          <t>92.662 km</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>100kWh Performance Dual Motor AWD</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-performance-dual-motor-awd-elettrica-grigio-a0f32d5d-1c8c-412c-b7b7-21304771ded7</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-nero-2357efcf-d360-49be-93a4-94104b027326</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.000</t>
+          <t xml:space="preserve"> 60.000</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>12/2020</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>253 CV</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>88.900 km</t>
+          <t>57.900 km</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>100kWh Long Range Dual Motor AWD</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-nero-1f013d26-3403-4b99-a151-f582eeb2b01a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-long-range-dual-motor-awd-elettrica-nero-3b5110ac-d582-4128-92d8-0aae4e5e7ec7</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.400</t>
+          <t xml:space="preserve"> 30.000</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>12/2014</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3877,56 +3873,56 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>92.662 km</t>
+          <t>190.000 km</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>85 D</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-nero-2357efcf-d360-49be-93a4-94104b027326</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-85-d-elettrica-blu-azzurro-968f967f-2b5d-461f-b727-0910e2d055d0</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45.000</t>
+          <t xml:space="preserve"> 41.900</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>06/2018</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>175.000 km</t>
+          <t>63.000 km</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Model S 100 D</t>
+          <t>Model S 75 D ACC FULL LED IVA ESPOSTA</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-d-elettrica-grigio-2f75da52-5995-4505-8ac9-e1a49241dcbf</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-acc-full-led-iva-esposta-elettrica-blu-azzurro-bfe786c3-be12-4b01-9846-addd8e839ba3</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.490</t>
+          <t xml:space="preserve"> 41.500</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3941,152 +3937,152 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>73.013 km</t>
+          <t>64.098 km</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>100kWh Dual Motor AWD</t>
+          <t>Model S 75</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-dual-motor-awd-elettrica-rosso-84ef72c4-a8dd-4de9-a907-d264bb960299</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-elettrica-blu-azzurro-468d7d85-1d30-4ee8-8739-9b4ed5bf6dca</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 29.500</t>
+          <t xml:space="preserve"> 39.900</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>08/2016</t>
+          <t>09/2018</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>421 CV</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>360.000 km</t>
+          <t>196.667 km</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Model S 90 D</t>
+          <t>100 KWH ALL-WHEEL DUAL DRIVE</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-90-d-elettrica-grigio-b1dfdd4c-be17-4a49-b0ea-32c13679ad8b</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-kwh-all-wheel-dual-drive-elettrica-argento-9790915b-e037-41f1-917b-d8b23df62959</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42.390</t>
+          <t xml:space="preserve"> 62.000</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>12/2020</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>795 CV</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>74.995 km</t>
+          <t>106.000 km</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>75kWh All-Wheel Drive</t>
+          <t>Model S Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-75kwh-all-wheel-drive-elettrica-bianco-83898162-d142-4544-806a-0cc6ed967d21</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-performance-dual-motor-awd-elettrica-nero-59e4fdb9-01bd-403c-a85e-7bcbc1dad12c</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48.000</t>
+          <t xml:space="preserve"> 48.900</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>08/2020</t>
+          <t>05/2020</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (1 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>70.000 km</t>
+          <t>101.365 km</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Performance Ludicrous awd IMPECCABILE !</t>
+          <t>PERFORMANCE DUAL MOTOR AWD</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-ludicrous-awd-impeccabile-elettrica-nero-376c048b-6cf3-4013-93f5-ed6d6c36ca64</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-grigio-0b1608d5-3b8b-4908-8e20-1993c9856549</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.900</t>
+          <t xml:space="preserve"> 48.900</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>05/2020</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>91.410 km</t>
+          <t>101.365 km</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>75 d</t>
+          <t>PERFORMANCE DUAL MOTOR AWD</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-75-d-elettrica-grigio-e7d5da68-02ee-4232-88a5-96e3f1da0624</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-grigio-11c025f2-3a33-4edc-912e-5563cc5ce85a</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58.000</t>
+          <t xml:space="preserve"> 50.900,-1</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4096,125 +4092,125 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>770 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>109.000 km</t>
+          <t>29.205 km</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Model S Performance Dual Motor Ludicrous</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-performance-dual-motor-ludicrous-elettrica-grigio-34d34638-6f79-46f5-a62a-2778f12ded95</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-grigio-46f0a311-1927-4ece-9968-17c67467a8d6</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42.000</t>
+          <t xml:space="preserve"> 56.490</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>09/2016</t>
+          <t>03/2018</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>328 CV</t>
+          <t>469 CV</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>60.000 km</t>
+          <t>79.257 km</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>75D</t>
+          <t>100kwh performance all-wheel drive</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-75d-elettrica-nero-91912e0c-dc81-4034-ba6c-5195c6f21b5c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-performance-all-wheel-drive-elettrica-rosso-63bd084a-1afe-42a9-83b1-8e88ca251196</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45.000</t>
+          <t xml:space="preserve"> 36.000</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>01/2017</t>
+          <t>09/2017</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>220.000 km</t>
+          <t>137.000 km</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Model S 75 D</t>
+          <t>75D</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-elettrica-argento-3772619b-c281-49dd-82ee-d37f33c8e440</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-75d-elettrica-nero-bb832ab3-3ff6-4504-99eb-054fc779f90a</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.900</t>
+          <t xml:space="preserve"> 45.900</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>12/2018</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>421 CV</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>106.000 km</t>
+          <t>73.013 km</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Model S 100kWh Long Range Dual Motor AWD</t>
+          <t>100kWh Dual Motor AWD</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100kwh-long-range-dual-motor-awd-elettrica-nero-1309db4e-a0d4-4beb-9fec-37d50a13021a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-dual-motor-awd-elettrica-rosso-e2ce7adb-512a-4706-979f-8522315d483a</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39.500</t>
+          <t xml:space="preserve"> 58.000</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -4224,94 +4220,98 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>770 CV</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>92.000 km</t>
+          <t>109.000 km</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Model S 75 D</t>
+          <t>Model S Performance Dual Motor Ludicrous</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-elettrica-nero-5397de2d-2dc7-466a-a170-de127e7667ee</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-performance-dual-motor-ludicrous-elettrica-grigio-34d34638-6f79-46f5-a62a-2778f12ded95</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.990</t>
+          <t xml:space="preserve"> 50.900</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>02/2018</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>90.000 km</t>
+          <t>29.205 km</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>100kWh Performance All-Wheel Drive</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-performance-all-wheel-drive-elettrica-nero-8e2fca15-ae3b-4bab-ae62-c67ba75fa04d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-grigio-8f9d1721-1dba-4570-a2f4-cf06f78a89c9</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59.950</t>
+          <t xml:space="preserve"> 46.300</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>08/2017</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>69.323 km</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr"/>
+          <t>104.095 km</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Model S 100 D</t>
+        </is>
+      </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-elettrica-nero-7f0ce9a2-c42f-47cf-af35-2d72fe630511</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-d-elettrica-nero-e759c02d-caa1-4880-a355-e108dfcd7bf7</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54.900</t>
+          <t xml:space="preserve"> 39.900</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>05/2018</t>
+          <t>07/2018</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4321,180 +4321,180 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>88.573 km</t>
+          <t>91.410 km</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>100kWh All-Wheel Drive</t>
+          <t>75 d</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-all-wheel-drive-elettrica-nero-3e398f95-497b-49e3-bdec-4e3c2e88782e</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-75-d-elettrica-grigio-e7d5da68-02ee-4232-88a5-96e3f1da0624</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 56.000</t>
+          <t xml:space="preserve"> 40.000</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>06/2016</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>460 CV</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>46.000 km</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>P100 D</t>
-        </is>
-      </c>
+          <t>178.000 km</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100-d-elettrica-argento-ea3057a9-1993-439a-87a0-17e0473f3956</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-elettrica-argento-f58909b0-5c58-41a6-9590-83fa00582d62</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50.900,-1</t>
+          <t xml:space="preserve"> 45.000</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>01/2017</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>101.365 km</t>
+          <t>220.000 km</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>PERFORMANCE DUAL MOTOR AWD</t>
+          <t>Model S 75 D</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-grigio-2dde6583-d50b-47a4-be7f-48f207cdc4b9</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-elettrica-argento-3772619b-c281-49dd-82ee-d37f33c8e440</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40.000</t>
+          <t xml:space="preserve"> 51.400</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>06/2016</t>
+          <t>03/2020</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>460 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>178.000 km</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr"/>
+          <t>74.138 km</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>LONG RANGE PLUS AWD</t>
+        </is>
+      </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-elettrica-argento-f58909b0-5c58-41a6-9590-83fa00582d62</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-d436a5ee-39bf-40c8-b625-b484f81c08e5</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 56.900</t>
+          <t xml:space="preserve"> 50.000</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>10/2019</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>29.205 km</t>
+          <t>88.000 km</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>Dual Motor awd</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-grigio-46f0a311-1927-4ece-9968-17c67467a8d6</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-dual-motor-awd-elettrica-grigio-1153047e-7816-4266-b9aa-cbc193b68835</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.900</t>
+          <t xml:space="preserve"> 59.999</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>04/2019</t>
+          <t>06/2019</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>106.000 km</t>
+          <t>75.000 km</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>Model S Performance Dual Motor awd</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-nero-130f7046-ed80-4483-b570-27ff093f43aa</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-performance-dual-motor-awd-elettrica-grigio-750876e7-cf73-4074-a7c5-b2dff85104f5</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.900</t>
+          <t xml:space="preserve"> 51.400</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4519,179 +4519,179 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-f99529fd-b2d7-4829-88ad-b15bbb9de044</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-2f2ad930-2353-4ce3-8fc9-7411a1656333</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62.000</t>
+          <t xml:space="preserve"> 65.000</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>03/2020</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>795 CV</t>
+          <t>517 CV</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>106.000 km</t>
+          <t>61.000 km</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Model S Performance Dual Motor awd</t>
+          <t>Long Range</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-performance-dual-motor-awd-elettrica-nero-59e4fdb9-01bd-403c-a85e-7bcbc1dad12c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-elettrica-grigio-0b301121-7f03-4679-88cc-4e172808c075</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62.000</t>
+          <t xml:space="preserve"> 52.990</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>12/2020</t>
+          <t>02/2018</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>253 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>57.900 km</t>
+          <t>90.000 km</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>100kWh Long Range Dual Motor AWD</t>
+          <t>100kWh Performance All-Wheel Drive</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-long-range-dual-motor-awd-elettrica-nero-3b5110ac-d582-4128-92d8-0aae4e5e7ec7</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-performance-all-wheel-drive-elettrica-nero-8e2fca15-ae3b-4bab-ae62-c67ba75fa04d</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.500</t>
+          <t xml:space="preserve"> 43.900</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>10/2018</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>421 CV</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>198.000 km</t>
+          <t>95.657 km</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Model S P90 D</t>
+          <t>100 kWh Long Range Dual Motor AWD</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-p90-d-elettrica-bianco-083275f7-b863-46f7-8001-15c9e025ed15</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-kwh-long-range-dual-motor-awd-elettrica-blu-azzurro-d7b4324d-9307-4303-8d43-78ec8fcb083b</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38.000</t>
+          <t xml:space="preserve"> 47.900</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>01/2018</t>
+          <t>02/2019</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>195.000 km</t>
+          <t>154.047 km</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Model S 75 D</t>
+          <t>100kWh All-Wheel Drive</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-elettrica-nero-926b3c37-30e1-4501-a815-b6c17b546206</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-all-wheel-drive-elettrica-nero-de9711da-4c48-461f-8f05-86e861cc117d</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 55.000</t>
+          <t xml:space="preserve"> 54.500</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>09/2018</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>79.000 km</t>
+          <t>40.719 km</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>100 D - Tettuccio apribile</t>
+          <t>LONG RANGE PLUS AWD</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-tettuccio-apribile-elettrica-rosso-872bbbeb-43eb-433f-ad5a-8a9302399b18</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-065a4801-aa36-4721-8523-c03a0f0559bf</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45.000</t>
+          <t xml:space="preserve"> 39.500</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>08/2017</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>85.000 km</t>
+          <t>92.000 km</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4711,39 +4711,39 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-elettrica-rosso-75467429-5c51-44b7-b76e-3b8e54f6f60c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-elettrica-nero-5397de2d-2dc7-466a-a170-de127e7667ee</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 30.900</t>
+          <t xml:space="preserve"> 54.500</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>11/2014</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>240.000 km</t>
+          <t>40.719 km</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>P85</t>
+          <t>LONG RANGE PLUS AWD</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85-elettrica-nero-bd78af4b-3040-495b-a979-44a07fda89b8</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-66e4acbb-fe79-45be-af7a-a73c306da181</t>
         </is>
       </c>
     </row>
@@ -4775,83 +4775,83 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85-elettrica-nero-f439dd04-61ba-4b30-bc1e-4825a6a84d9d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85-elettrica-nero-bd78af4b-3040-495b-a979-44a07fda89b8</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 65.000</t>
+          <t xml:space="preserve"> 30.900</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>03/2020</t>
+          <t>11/2014</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>517 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>61.000 km</t>
+          <t>240.000 km</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Long Range</t>
+          <t>P85</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-elettrica-grigio-0b301121-7f03-4679-88cc-4e172808c075</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p85-elettrica-nero-f439dd04-61ba-4b30-bc1e-4825a6a84d9d</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.000</t>
+          <t xml:space="preserve"> 52.900</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>226.000 km</t>
+          <t>106.000 km</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Model S 100 D</t>
+          <t>Model S 100kWh Long Range Dual Motor AWD</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-d-elettrica-blu-azzurro-d41a9e08-8aa5-48d0-acad-9537b4e7d9ec</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100kwh-long-range-dual-motor-awd-elettrica-nero-1309db4e-a0d4-4beb-9fec-37d50a13021a</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 60.000</t>
+          <t xml:space="preserve"> 50.900,-1</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>03/2017</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4861,349 +4861,349 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>114.000 km</t>
+          <t>29.205 km</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>P100 D</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100-d-elettrica-argento-f92d6977-f070-4d86-8647-53ff9b3862f8</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-grigio-2a78e414-09df-44ca-b7d8-b588ec8d4cc8</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 38.500</t>
+          <t xml:space="preserve"> 48.000</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>11/2017</t>
+          <t>05/2019</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>320 CV</t>
+          <t>185 CV</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>155.000 km</t>
+          <t>78.000 km</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75d 85kw</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-75-elettrica-nero-9a57605f-a66b-49d8-b1d6-87b76a2aeb3b</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-75d-85kw-elettrica-grigio-a89de091-75c5-4660-9f5b-ff57d0af623e</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51.900</t>
+          <t xml:space="preserve"> 48.900</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>06/2017</t>
+          <t>05/2020</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>200.000 km</t>
+          <t>101.365 km</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>90kWh All-Wheel Drive Tetto Pan Apri Sedili Risc V</t>
+          <t>PERFORMANCE DUAL MOTOR AWD</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-90kwh-all-wheel-drive-tetto-pan-apri-sedili-risc-v-elettrica-bianco-90154b55-e069-4d3c-bbad-362ff5797bc3</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-grigio-855e0dd0-0bf7-411f-9c72-f17e1e969360</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 47.900</t>
+          <t xml:space="preserve"> 48.900</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>02/2019</t>
+          <t>05/2020</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>154.047 km</t>
+          <t>101.365 km</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>100kWh All-Wheel Drive</t>
+          <t>PERFORMANCE DUAL MOTOR AWD</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-all-wheel-drive-elettrica-nero-de9711da-4c48-461f-8f05-86e861cc117d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-grigio-577d792b-c414-490e-a915-23c29db6a1a0</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50.900,-1</t>
+          <t xml:space="preserve"> 47.000</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>05/2018</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>101.365 km</t>
+          <t>88.625 km</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>PERFORMANCE DUAL MOTOR AWD</t>
+          <t>Model S 100 D</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-grigio-a2dc770a-b9b7-4a74-a5d9-04efa2500f2a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-d-elettrica-nero-ad0d1376-b026-453a-8c09-3d73bb4511aa</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50.900,-1</t>
+          <t xml:space="preserve"> 54.500</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>05/2020</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>101.365 km</t>
+          <t>40.719 km</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>PERFORMANCE DUAL MOTOR AWD</t>
+          <t>LONG RANGE PLUS AWD</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-grigio-0b1608d5-3b8b-4908-8e20-1993c9856549</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-34983bd1-c338-4e53-81d2-dfb2fd9d90f5</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58.000</t>
+          <t xml:space="preserve"> 54.500</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>10/2019</t>
+          <t>09/2020</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>88.000 km</t>
+          <t>40.719 km</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Dual Motor awd</t>
+          <t>LONG RANGE PLUS AWD</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-dual-motor-awd-elettrica-grigio-1153047e-7816-4266-b9aa-cbc193b68835</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-db081053-52cd-4534-849c-e22d8c2d4845</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46.400</t>
+          <t xml:space="preserve"> 56.000</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>10/2018</t>
+          <t>06/2018</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>215 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>95.657 km</t>
+          <t>46.000 km</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>100 kWh Long Range Dual Motor AWD</t>
+          <t>P100 D</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-kwh-long-range-dual-motor-awd-elettrica-blu-azzurro-0ffa4148-b2d1-4ef6-899f-2ad3bff6ae8c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100-d-elettrica-argento-ea3057a9-1993-439a-87a0-17e0473f3956</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49.999</t>
+          <t xml:space="preserve"> 52.900</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>11/2018</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>124.500 km</t>
+          <t>106.000 km</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Model S 100 D</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-d-elettrica-grigio-30f6f275-944e-46ff-9c75-22e8cba57f3d</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-nero-130f7046-ed80-4483-b570-27ff093f43aa</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 56.000</t>
+          <t xml:space="preserve"> 51.400</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>06/2018</t>
+          <t>03/2020</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>46.000 km</t>
+          <t>74.138 km</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>P100 D</t>
+          <t>LONG RANGE PLUS AWD</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100-d-elettrica-argento-7dd9c2ef-f96e-4aa4-afd9-cfbd24386533</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-49cee679-245c-46b1-aa21-2863a5c2f0ad</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 52.000</t>
+          <t xml:space="preserve"> 49.000</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>12/2017</t>
+          <t>11/2018</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>89.000 km</t>
+          <t>88.900 km</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Model S 75 D</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-elettrica-bianco-cc79909a-612c-4c6c-9987-52e95a2b0b40</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-nero-1f013d26-3403-4b99-a151-f582eeb2b01a</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 60.000</t>
+          <t xml:space="preserve"> 38.000</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>01/2018</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5213,216 +5213,216 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>79.000 km</t>
+          <t>199.000 km</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>100 D</t>
+          <t>Model S 75 D</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-bianco-bc2c1857-7209-4cc2-b6c6-f5ee454129d9</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-elettrica-nero-926b3c37-30e1-4501-a815-b6c17b546206</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40.000</t>
+          <t xml:space="preserve"> 51.900</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>06/2019</t>
+          <t>06/2017</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>891 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>93.000 km</t>
+          <t>200.000 km</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>PERF. D. M. 100 Subentro leasing 1430 € mensili</t>
+          <t>90kWh All-Wheel Drive Tetto Pan Apri Sedili Risc V</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-perf-d-m-100-subentro-leasing-1430--mensili-elettrica-bianco-9e52f734-be43-4b0b-ac6e-db3392c0b204</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-90kwh-all-wheel-drive-tetto-pan-apri-sedili-risc-v-elettrica-bianco-90154b55-e069-4d3c-bbad-362ff5797bc3</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 58.000</t>
+          <t xml:space="preserve"> 50.900</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>08/2019</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>835 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>42.000 km</t>
+          <t>29.205 km</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>PERFORMANCE RAVEN LUDICRUS PLUS</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-raven-ludicrus-plus-elettrica-nero-dd93e88c-879d-4420-b01a-7752f681a086</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-grigio-d1a82276-faa8-467d-935d-c1c5edea54db</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 97.000</t>
+          <t xml:space="preserve"> 45.000</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>12/2022</t>
+          <t>06/2017</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>020 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>29.500 km</t>
+          <t>175.000 km</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Plaid</t>
+          <t>Model S 100 D</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-plaid-elettrica-rosso-706e93e5-59f5-4b19-8140-06207864c67a</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-d-elettrica-grigio-2f75da52-5995-4505-8ac9-e1a49241dcbf</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 83.000</t>
+          <t xml:space="preserve"> 50.900</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>03/2022</t>
+          <t>04/2019</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>230 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>7.033 km</t>
+          <t>29.205 km</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Model S Plaid awd</t>
+          <t>100 D</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-plaid-awd-elettrica-blu-azzurro-62a24aac-f89f-48ff-8438-3dcb23c8f0ea</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-grigio-f1935866-f6b1-4b37-b48f-74af647c8fe9</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 115.000,-1</t>
+          <t xml:space="preserve"> 49.000</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>06/2023</t>
+          <t>06/2018</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>020 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5.500 km</t>
+          <t>226.000 km</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Model S Performance Tri-Motor Plaid awd</t>
+          <t>Model S 100 D</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-performance-tri-motor-plaid-awd-elettrica-nero-0b0b53e5-bed6-44b9-9588-50ca119f4871</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-100-d-elettrica-blu-azzurro-d41a9e08-8aa5-48d0-acad-9537b4e7d9ec</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 17.000</t>
+          <t xml:space="preserve"> 54.900</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>06/2015</t>
+          <t>05/2018</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>184 CV</t>
+          <t>215 CV</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>195.000 km</t>
+          <t>88.573 km</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>70D Supercharger gratis a vita. per commercianti</t>
+          <t>100kWh All-Wheel Drive</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-70d-supercharger-gratis-a-vita-per-commercianti-elettrica-001c4ac3-9e33-47da-a840-c01a79ea6ae2</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100kwh-all-wheel-drive-elettrica-nero-3e398f95-497b-49e3-bdec-4e3c2e88782e</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 34.900</t>
+          <t xml:space="preserve"> 60.000</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5432,54 +5432,726 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>185 CV</t>
+          <t>184 CV</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>5.000 km</t>
+          <t>114.000 km</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Model S P90 D</t>
+          <t>P100 D</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-p90-d-elettrica-blu-azzurro-c09b3599-dd0b-44d2-a677-a2e8522a474c</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100-d-elettrica-argento-f92d6977-f070-4d86-8647-53ff9b3862f8</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 26.000</t>
+          <t xml:space="preserve"> 48.900</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>07/2018</t>
+          <t>05/2020</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>332 CV</t>
+          <t>230 CV</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>185.000 km</t>
+          <t>101.365 km</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>75 D</t>
+          <t>PERFORMANCE DUAL MOTOR AWD</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://www.autoscout24.it/annunci/tesla-model-s-75-d-elettrica-nero-7267d1f2-b6a3-4a57-bc38-4d8affb4ea46</t>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-grigio-da874c34-7008-4255-8ae7-8cd288892daf</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54.500</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>215 CV</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>40.719 km</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>LONG RANGE PLUS AWD</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-f3fc6d6e-09dc-4551-b951-ee79f5a661e1</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 48.900</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>05/2020</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>230 CV</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>101.365 km</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>PERFORMANCE DUAL MOTOR AWD</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-grigio-2f282885-8b7d-4191-8b7d-87eebbf16e2b</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 51.400</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>03/2020</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>215 CV</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>74.138 km</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>LONG RANGE PLUS AWD</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-bacef99d-696e-4945-87d2-0e7352451cd8</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 55.000</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>09/2018</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>184 CV</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>79.000 km</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>100 D - Tettuccio apribile</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-tettuccio-apribile-elettrica-rosso-872bbbeb-43eb-433f-ad5a-8a9302399b18</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 48.900</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>05/2020</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>230 CV</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>101.365 km</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>PERFORMANCE DUAL MOTOR AWD</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-performance-dual-motor-awd-elettrica-grigio-399d924e-39d7-4810-a449-395d2062de28</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54.500</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>215 CV</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>40.719 km</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>LONG RANGE PLUS AWD</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-6574a77d-df94-41d0-a59d-7d3e414dace8</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 52.000</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>12/2017</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>184 CV</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>89.000 km</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Model S 75 D</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-75-d-elettrica-bianco-cc79909a-612c-4c6c-9987-52e95a2b0b40</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 51.400</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>03/2020</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>215 CV</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>74.138 km</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>LONG RANGE PLUS AWD</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-60aa24b9-7e7d-4e06-b063-e73c290ea6ee</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 60.000</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>06/2019</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>184 CV</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>79.000 km</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-bianco-bc2c1857-7209-4cc2-b6c6-f5ee454129d9</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 50.900</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>04/2019</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>184 CV</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>29.205 km</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-grigio-74d899da-1a20-4e9d-8074-972aac127aac</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 51.400</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>03/2020</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>215 CV</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>74.138 km</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>LONG RANGE PLUS AWD</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-0d65c878-3312-4298-82d5-9b547d2754bb</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 50.900</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>04/2019</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>184 CV</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>29.205 km</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-grigio-3a20dbe6-6ea5-49dc-b9e2-b6a412c7ed8d</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56.000</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>06/2018</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>184 CV</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>46.000 km</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>P100 D</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-p100-d-elettrica-argento-7dd9c2ef-f96e-4aa4-afd9-cfbd24386533</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 50.900</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>04/2019</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>184 CV</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>29.205 km</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-grigio-e63df212-b887-4151-b480-3d70c4611b7b</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 51.400</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>03/2020</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>215 CV</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>74.138 km</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>LONG RANGE PLUS AWD</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-b4492b01-25eb-4b46-980f-9b75329442cb</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54.500</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>215 CV</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>40.719 km</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>LONG RANGE PLUS AWD</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-6ce420ff-8f62-4d1c-8518-a1848a26d37c</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54.500</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>09/2020</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>215 CV</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>40.719 km</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>LONG RANGE PLUS AWD</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-long-range-plus-awd-elettrica-bianco-037a57e6-230a-40dc-a20d-7b4f44b64bfe</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 50.900</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>04/2019</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>184 CV</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>29.205 km</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>100 D</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100-d-elettrica-grigio-7436621f-5956-4ec4-b287-8da1e50eef9c</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 34.900</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>03/2017</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>185 CV</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>5.000 km</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Model S P90 D</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-p90-d-elettrica-blu-azzurro-c09b3599-dd0b-44d2-a677-a2e8522a474c</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 38.000</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>05/2019</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>292 CV</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>80.000 km</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>100D - Batterie nuove</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-100d-batterie-nuove-elettrica-nero-6858575d-d3e5-4243-a6cd-1df1d88c8aa0</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 89.000</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>11/2023</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>020 CV</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>5.300 km</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Model S Performance Dual Motor Plaid awd</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://www.autoscout24.it/annunci/tesla-model-s-model-s-performance-dual-motor-plaid-awd-elettrica-bianco-4a92488f-f7ac-4dc5-9663-5acfafa6ca3a</t>
         </is>
       </c>
     </row>
